--- a/10-NewtonForwardInterpolation.xlsx
+++ b/10-NewtonForwardInterpolation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Example1" sheetId="2" r:id="rId1"/>
@@ -1233,6 +1233,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,26 +1257,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:G13"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,14 +1578,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1722,6 +1722,28 @@
       <c r="B13" s="4">
         <f>D5 + E6*B3 + F7*(B3*(B3-1))/FACT(2) + G8*(B3*(B3-1)*(B3-2))/FACT(3)</f>
         <v>165</v>
+      </c>
+      <c r="C13">
+        <f>D5</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f xml:space="preserve"> E6*B3</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f xml:space="preserve"> F7*(B3*(B3-1))/FACT(2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f xml:space="preserve"> G8*(B3*(B3-1)*(B3-2))/FACT(3)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1771,14 +1793,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1931,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,14 +1986,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2283,8 +2305,8 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <f>D5 + E6*B3 + F7*(B3*(B3-1))/FACT(2) + G8*(B3*(B3-1)*(B3-2))/FACT(3) + H9*(B3*(B3-1)*(B3-2)*(B2-3))/FACT(4) + I10*(B3*(B3-1)*(B3-2)*(B2-3)*(B2-4))/FACT(5) + J11*(B3*(B3-1)*(B3-2)*(B2-3)*(B2-4)*(B2-5))/FACT(6)</f>
-        <v>0.45946250000000022</v>
+        <f>D5 + E6*B3 + F7*(B3*(B3-1))/FACT(2) + G8*(B3*(B3-1)*(B3-2))/FACT(3) + H9*(B3*(B3-1)*(B3-2)*(B3-3))/FACT(4) + I10*(B3*(B3-1)*(B3-2)*(B3-3)*(B3-4))/FACT(5) + J11*(B3*(B3-1)*(B3-2)*(B3-3)*(B3-4)*(B3-5))/FACT(6)</f>
+        <v>0.59649482421875022</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2315,7 +2337,7 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="30">
         <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2340,14 +2362,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2533,7 +2555,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="4">
@@ -2546,14 +2568,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="4">
         <f>D15-D5</f>
         <v>16.8671875</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="32">
         <f>ROUND(D16,0)</f>
         <v>17</v>
       </c>
